--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value47.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value47.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6479667736122068</v>
+        <v>1.450817465782166</v>
       </c>
       <c r="B1">
-        <v>1.05562528631363</v>
+        <v>2.068468809127808</v>
       </c>
       <c r="C1">
-        <v>2.645480290166325</v>
+        <v>3.373941421508789</v>
       </c>
       <c r="D1">
-        <v>3.5306555542067</v>
+        <v>5.545896530151367</v>
       </c>
       <c r="E1">
-        <v>1.583342268904549</v>
+        <v>2.378536462783813</v>
       </c>
     </row>
   </sheetData>
